--- a/Equipo3-Planificación y seguimiento.xlsx
+++ b/Equipo3-Planificación y seguimiento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reto 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t xml:space="preserve">Nombre de la empresa del grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANCS</t>
   </si>
   <si>
     <t xml:space="preserve">Alumnos:</t>
@@ -93,9 +96,6 @@
     <t xml:space="preserve">Esquema de red</t>
   </si>
   <si>
-    <t xml:space="preserve">En proceso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Usaremos una topología de red con tres interfaces de red en ella. Dispondremos de una red DMZ y una red interna.</t>
   </si>
   <si>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Elegir sistema operativo para el router</t>
   </si>
   <si>
-    <t xml:space="preserve">Pendiente</t>
+    <t xml:space="preserve">El sistema operativo del router será Pfsense.</t>
   </si>
   <si>
     <t xml:space="preserve">Programa para usar servidor web</t>
@@ -212,7 +212,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -277,12 +277,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -430,7 +424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,6 +437,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,18 +490,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,8 +620,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,315 +641,324 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="A5" s="10"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <v>44575</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="15" t="n">
         <v>44575</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="C11" s="14" t="n">
+        <v>44575</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>44576</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13" t="n">
+      <c r="F11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <v>44575</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13" t="n">
+      <c r="D12" s="14" t="n">
         <v>44575</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="E12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14" t="n">
         <v>44575</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="D13" s="15" t="n">
+        <v>44576</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="53.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="13" t="n">
-        <v>44578</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="53.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="14" t="n">
         <v>44575</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="15" t="n">
         <v>44575</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <v>44575</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -1984,259 +1979,259 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2247,8 +2242,8 @@
     <hyperlink ref="B4" r:id="rId1" display="https://trello.com/b/CKTg99DY/ejemplo-planificaci%C3%B3n-reto"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2263,8 +2258,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2286,7 +2281,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.76"/>
@@ -2296,310 +2291,310 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="X4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2615,8 +2610,8 @@
     <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Equipo3-Planificación y seguimiento.xlsx
+++ b/Equipo3-Planificación y seguimiento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reto 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t xml:space="preserve">Nombre de la empresa del grupo</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Tablero de Trello: </t>
   </si>
   <si>
-    <t xml:space="preserve">https://trello.com/b/CKTg99DY/ejemplo-planificaci%C3%B3n-reto</t>
+    <t xml:space="preserve">https://github.com/DealG/Reto/projects/1</t>
   </si>
   <si>
     <t xml:space="preserve">SE PUEDE OPTAR POR USAR UNA TABLA COMO ESTA (CON LAS MODIFICACIONES QUE CONSIDERÉIS) O UN TABLERO DE TRELLO/WEKAN COMO EL DEL EJEMPLO (CON LAS MODIFICACIONES QUE CONSIDERÉIS)</t>
@@ -153,6 +153,27 @@
     <t xml:space="preserve">Hemos decidido usar OpenVPN.</t>
   </si>
   <si>
+    <t xml:space="preserve">Llevar hasta la mitad de la fase 1,ROUTER, creación de maquinas en azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llevar hasta la mitad de la fase 1, DMZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor,Cristian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llevar hasta la mitad de la fase 1,RED INTERNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machu,Matias</t>
+  </si>
+  <si>
     <t xml:space="preserve">Registro semanal de tareas</t>
   </si>
   <si>
@@ -212,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,6 +305,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -493,8 +520,8 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -618,15 +645,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="25.13"/>
@@ -937,12 +964,20 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>44584</v>
+      </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -952,1038 +987,43 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="0"/>
-      <c r="AC17" s="0"/>
-      <c r="AD17" s="0"/>
-      <c r="AE17" s="0"/>
-      <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
-      <c r="AH17" s="0"/>
-      <c r="AI17" s="0"/>
-      <c r="AJ17" s="0"/>
-      <c r="AK17" s="0"/>
-      <c r="AL17" s="0"/>
-      <c r="AM17" s="0"/>
-      <c r="AN17" s="0"/>
-      <c r="AO17" s="0"/>
-      <c r="AP17" s="0"/>
-      <c r="AQ17" s="0"/>
-      <c r="AR17" s="0"/>
-      <c r="AS17" s="0"/>
-      <c r="AT17" s="0"/>
-      <c r="AU17" s="0"/>
-      <c r="AV17" s="0"/>
-      <c r="AW17" s="0"/>
-      <c r="AX17" s="0"/>
-      <c r="AY17" s="0"/>
-      <c r="AZ17" s="0"/>
-      <c r="BA17" s="0"/>
-      <c r="BB17" s="0"/>
-      <c r="BC17" s="0"/>
-      <c r="BD17" s="0"/>
-      <c r="BE17" s="0"/>
-      <c r="BF17" s="0"/>
-      <c r="BG17" s="0"/>
-      <c r="BH17" s="0"/>
-      <c r="BI17" s="0"/>
-      <c r="BJ17" s="0"/>
-      <c r="BK17" s="0"/>
-      <c r="BL17" s="0"/>
-      <c r="BM17" s="0"/>
-      <c r="BN17" s="0"/>
-      <c r="BO17" s="0"/>
-      <c r="BP17" s="0"/>
-      <c r="BQ17" s="0"/>
-      <c r="BR17" s="0"/>
-      <c r="BS17" s="0"/>
-      <c r="BT17" s="0"/>
-      <c r="BU17" s="0"/>
-      <c r="BV17" s="0"/>
-      <c r="BW17" s="0"/>
-      <c r="BX17" s="0"/>
-      <c r="BY17" s="0"/>
-      <c r="BZ17" s="0"/>
-      <c r="CA17" s="0"/>
-      <c r="CB17" s="0"/>
-      <c r="CC17" s="0"/>
-      <c r="CD17" s="0"/>
-      <c r="CE17" s="0"/>
-      <c r="CF17" s="0"/>
-      <c r="CG17" s="0"/>
-      <c r="CH17" s="0"/>
-      <c r="CI17" s="0"/>
-      <c r="CJ17" s="0"/>
-      <c r="CK17" s="0"/>
-      <c r="CL17" s="0"/>
-      <c r="CM17" s="0"/>
-      <c r="CN17" s="0"/>
-      <c r="CO17" s="0"/>
-      <c r="CP17" s="0"/>
-      <c r="CQ17" s="0"/>
-      <c r="CR17" s="0"/>
-      <c r="CS17" s="0"/>
-      <c r="CT17" s="0"/>
-      <c r="CU17" s="0"/>
-      <c r="CV17" s="0"/>
-      <c r="CW17" s="0"/>
-      <c r="CX17" s="0"/>
-      <c r="CY17" s="0"/>
-      <c r="CZ17" s="0"/>
-      <c r="DA17" s="0"/>
-      <c r="DB17" s="0"/>
-      <c r="DC17" s="0"/>
-      <c r="DD17" s="0"/>
-      <c r="DE17" s="0"/>
-      <c r="DF17" s="0"/>
-      <c r="DG17" s="0"/>
-      <c r="DH17" s="0"/>
-      <c r="DI17" s="0"/>
-      <c r="DJ17" s="0"/>
-      <c r="DK17" s="0"/>
-      <c r="DL17" s="0"/>
-      <c r="DM17" s="0"/>
-      <c r="DN17" s="0"/>
-      <c r="DO17" s="0"/>
-      <c r="DP17" s="0"/>
-      <c r="DQ17" s="0"/>
-      <c r="DR17" s="0"/>
-      <c r="DS17" s="0"/>
-      <c r="DT17" s="0"/>
-      <c r="DU17" s="0"/>
-      <c r="DV17" s="0"/>
-      <c r="DW17" s="0"/>
-      <c r="DX17" s="0"/>
-      <c r="DY17" s="0"/>
-      <c r="DZ17" s="0"/>
-      <c r="EA17" s="0"/>
-      <c r="EB17" s="0"/>
-      <c r="EC17" s="0"/>
-      <c r="ED17" s="0"/>
-      <c r="EE17" s="0"/>
-      <c r="EF17" s="0"/>
-      <c r="EG17" s="0"/>
-      <c r="EH17" s="0"/>
-      <c r="EI17" s="0"/>
-      <c r="EJ17" s="0"/>
-      <c r="EK17" s="0"/>
-      <c r="EL17" s="0"/>
-      <c r="EM17" s="0"/>
-      <c r="EN17" s="0"/>
-      <c r="EO17" s="0"/>
-      <c r="EP17" s="0"/>
-      <c r="EQ17" s="0"/>
-      <c r="ER17" s="0"/>
-      <c r="ES17" s="0"/>
-      <c r="ET17" s="0"/>
-      <c r="EU17" s="0"/>
-      <c r="EV17" s="0"/>
-      <c r="EW17" s="0"/>
-      <c r="EX17" s="0"/>
-      <c r="EY17" s="0"/>
-      <c r="EZ17" s="0"/>
-      <c r="FA17" s="0"/>
-      <c r="FB17" s="0"/>
-      <c r="FC17" s="0"/>
-      <c r="FD17" s="0"/>
-      <c r="FE17" s="0"/>
-      <c r="FF17" s="0"/>
-      <c r="FG17" s="0"/>
-      <c r="FH17" s="0"/>
-      <c r="FI17" s="0"/>
-      <c r="FJ17" s="0"/>
-      <c r="FK17" s="0"/>
-      <c r="FL17" s="0"/>
-      <c r="FM17" s="0"/>
-      <c r="FN17" s="0"/>
-      <c r="FO17" s="0"/>
-      <c r="FP17" s="0"/>
-      <c r="FQ17" s="0"/>
-      <c r="FR17" s="0"/>
-      <c r="FS17" s="0"/>
-      <c r="FT17" s="0"/>
-      <c r="FU17" s="0"/>
-      <c r="FV17" s="0"/>
-      <c r="FW17" s="0"/>
-      <c r="FX17" s="0"/>
-      <c r="FY17" s="0"/>
-      <c r="FZ17" s="0"/>
-      <c r="GA17" s="0"/>
-      <c r="GB17" s="0"/>
-      <c r="GC17" s="0"/>
-      <c r="GD17" s="0"/>
-      <c r="GE17" s="0"/>
-      <c r="GF17" s="0"/>
-      <c r="GG17" s="0"/>
-      <c r="GH17" s="0"/>
-      <c r="GI17" s="0"/>
-      <c r="GJ17" s="0"/>
-      <c r="GK17" s="0"/>
-      <c r="GL17" s="0"/>
-      <c r="GM17" s="0"/>
-      <c r="GN17" s="0"/>
-      <c r="GO17" s="0"/>
-      <c r="GP17" s="0"/>
-      <c r="GQ17" s="0"/>
-      <c r="GR17" s="0"/>
-      <c r="GS17" s="0"/>
-      <c r="GT17" s="0"/>
-      <c r="GU17" s="0"/>
-      <c r="GV17" s="0"/>
-      <c r="GW17" s="0"/>
-      <c r="GX17" s="0"/>
-      <c r="GY17" s="0"/>
-      <c r="GZ17" s="0"/>
-      <c r="HA17" s="0"/>
-      <c r="HB17" s="0"/>
-      <c r="HC17" s="0"/>
-      <c r="HD17" s="0"/>
-      <c r="HE17" s="0"/>
-      <c r="HF17" s="0"/>
-      <c r="HG17" s="0"/>
-      <c r="HH17" s="0"/>
-      <c r="HI17" s="0"/>
-      <c r="HJ17" s="0"/>
-      <c r="HK17" s="0"/>
-      <c r="HL17" s="0"/>
-      <c r="HM17" s="0"/>
-      <c r="HN17" s="0"/>
-      <c r="HO17" s="0"/>
-      <c r="HP17" s="0"/>
-      <c r="HQ17" s="0"/>
-      <c r="HR17" s="0"/>
-      <c r="HS17" s="0"/>
-      <c r="HT17" s="0"/>
-      <c r="HU17" s="0"/>
-      <c r="HV17" s="0"/>
-      <c r="HW17" s="0"/>
-      <c r="HX17" s="0"/>
-      <c r="HY17" s="0"/>
-      <c r="HZ17" s="0"/>
-      <c r="IA17" s="0"/>
-      <c r="IB17" s="0"/>
-      <c r="IC17" s="0"/>
-      <c r="ID17" s="0"/>
-      <c r="IE17" s="0"/>
-      <c r="IF17" s="0"/>
-      <c r="IG17" s="0"/>
-      <c r="IH17" s="0"/>
-      <c r="II17" s="0"/>
-      <c r="IJ17" s="0"/>
-      <c r="IK17" s="0"/>
-      <c r="IL17" s="0"/>
-      <c r="IM17" s="0"/>
-      <c r="IN17" s="0"/>
-      <c r="IO17" s="0"/>
-      <c r="IP17" s="0"/>
-      <c r="IQ17" s="0"/>
-      <c r="IR17" s="0"/>
-      <c r="IS17" s="0"/>
-      <c r="IT17" s="0"/>
-      <c r="IU17" s="0"/>
-      <c r="IV17" s="0"/>
-      <c r="IW17" s="0"/>
-      <c r="IX17" s="0"/>
-      <c r="IY17" s="0"/>
-      <c r="IZ17" s="0"/>
-      <c r="JA17" s="0"/>
-      <c r="JB17" s="0"/>
-      <c r="JC17" s="0"/>
-      <c r="JD17" s="0"/>
-      <c r="JE17" s="0"/>
-      <c r="JF17" s="0"/>
-      <c r="JG17" s="0"/>
-      <c r="JH17" s="0"/>
-      <c r="JI17" s="0"/>
-      <c r="JJ17" s="0"/>
-      <c r="JK17" s="0"/>
-      <c r="JL17" s="0"/>
-      <c r="JM17" s="0"/>
-      <c r="JN17" s="0"/>
-      <c r="JO17" s="0"/>
-      <c r="JP17" s="0"/>
-      <c r="JQ17" s="0"/>
-      <c r="JR17" s="0"/>
-      <c r="JS17" s="0"/>
-      <c r="JT17" s="0"/>
-      <c r="JU17" s="0"/>
-      <c r="JV17" s="0"/>
-      <c r="JW17" s="0"/>
-      <c r="JX17" s="0"/>
-      <c r="JY17" s="0"/>
-      <c r="JZ17" s="0"/>
-      <c r="KA17" s="0"/>
-      <c r="KB17" s="0"/>
-      <c r="KC17" s="0"/>
-      <c r="KD17" s="0"/>
-      <c r="KE17" s="0"/>
-      <c r="KF17" s="0"/>
-      <c r="KG17" s="0"/>
-      <c r="KH17" s="0"/>
-      <c r="KI17" s="0"/>
-      <c r="KJ17" s="0"/>
-      <c r="KK17" s="0"/>
-      <c r="KL17" s="0"/>
-      <c r="KM17" s="0"/>
-      <c r="KN17" s="0"/>
-      <c r="KO17" s="0"/>
-      <c r="KP17" s="0"/>
-      <c r="KQ17" s="0"/>
-      <c r="KR17" s="0"/>
-      <c r="KS17" s="0"/>
-      <c r="KT17" s="0"/>
-      <c r="KU17" s="0"/>
-      <c r="KV17" s="0"/>
-      <c r="KW17" s="0"/>
-      <c r="KX17" s="0"/>
-      <c r="KY17" s="0"/>
-      <c r="KZ17" s="0"/>
-      <c r="LA17" s="0"/>
-      <c r="LB17" s="0"/>
-      <c r="LC17" s="0"/>
-      <c r="LD17" s="0"/>
-      <c r="LE17" s="0"/>
-      <c r="LF17" s="0"/>
-      <c r="LG17" s="0"/>
-      <c r="LH17" s="0"/>
-      <c r="LI17" s="0"/>
-      <c r="LJ17" s="0"/>
-      <c r="LK17" s="0"/>
-      <c r="LL17" s="0"/>
-      <c r="LM17" s="0"/>
-      <c r="LN17" s="0"/>
-      <c r="LO17" s="0"/>
-      <c r="LP17" s="0"/>
-      <c r="LQ17" s="0"/>
-      <c r="LR17" s="0"/>
-      <c r="LS17" s="0"/>
-      <c r="LT17" s="0"/>
-      <c r="LU17" s="0"/>
-      <c r="LV17" s="0"/>
-      <c r="LW17" s="0"/>
-      <c r="LX17" s="0"/>
-      <c r="LY17" s="0"/>
-      <c r="LZ17" s="0"/>
-      <c r="MA17" s="0"/>
-      <c r="MB17" s="0"/>
-      <c r="MC17" s="0"/>
-      <c r="MD17" s="0"/>
-      <c r="ME17" s="0"/>
-      <c r="MF17" s="0"/>
-      <c r="MG17" s="0"/>
-      <c r="MH17" s="0"/>
-      <c r="MI17" s="0"/>
-      <c r="MJ17" s="0"/>
-      <c r="MK17" s="0"/>
-      <c r="ML17" s="0"/>
-      <c r="MM17" s="0"/>
-      <c r="MN17" s="0"/>
-      <c r="MO17" s="0"/>
-      <c r="MP17" s="0"/>
-      <c r="MQ17" s="0"/>
-      <c r="MR17" s="0"/>
-      <c r="MS17" s="0"/>
-      <c r="MT17" s="0"/>
-      <c r="MU17" s="0"/>
-      <c r="MV17" s="0"/>
-      <c r="MW17" s="0"/>
-      <c r="MX17" s="0"/>
-      <c r="MY17" s="0"/>
-      <c r="MZ17" s="0"/>
-      <c r="NA17" s="0"/>
-      <c r="NB17" s="0"/>
-      <c r="NC17" s="0"/>
-      <c r="ND17" s="0"/>
-      <c r="NE17" s="0"/>
-      <c r="NF17" s="0"/>
-      <c r="NG17" s="0"/>
-      <c r="NH17" s="0"/>
-      <c r="NI17" s="0"/>
-      <c r="NJ17" s="0"/>
-      <c r="NK17" s="0"/>
-      <c r="NL17" s="0"/>
-      <c r="NM17" s="0"/>
-      <c r="NN17" s="0"/>
-      <c r="NO17" s="0"/>
-      <c r="NP17" s="0"/>
-      <c r="NQ17" s="0"/>
-      <c r="NR17" s="0"/>
-      <c r="NS17" s="0"/>
-      <c r="NT17" s="0"/>
-      <c r="NU17" s="0"/>
-      <c r="NV17" s="0"/>
-      <c r="NW17" s="0"/>
-      <c r="NX17" s="0"/>
-      <c r="NY17" s="0"/>
-      <c r="NZ17" s="0"/>
-      <c r="OA17" s="0"/>
-      <c r="OB17" s="0"/>
-      <c r="OC17" s="0"/>
-      <c r="OD17" s="0"/>
-      <c r="OE17" s="0"/>
-      <c r="OF17" s="0"/>
-      <c r="OG17" s="0"/>
-      <c r="OH17" s="0"/>
-      <c r="OI17" s="0"/>
-      <c r="OJ17" s="0"/>
-      <c r="OK17" s="0"/>
-      <c r="OL17" s="0"/>
-      <c r="OM17" s="0"/>
-      <c r="ON17" s="0"/>
-      <c r="OO17" s="0"/>
-      <c r="OP17" s="0"/>
-      <c r="OQ17" s="0"/>
-      <c r="OR17" s="0"/>
-      <c r="OS17" s="0"/>
-      <c r="OT17" s="0"/>
-      <c r="OU17" s="0"/>
-      <c r="OV17" s="0"/>
-      <c r="OW17" s="0"/>
-      <c r="OX17" s="0"/>
-      <c r="OY17" s="0"/>
-      <c r="OZ17" s="0"/>
-      <c r="PA17" s="0"/>
-      <c r="PB17" s="0"/>
-      <c r="PC17" s="0"/>
-      <c r="PD17" s="0"/>
-      <c r="PE17" s="0"/>
-      <c r="PF17" s="0"/>
-      <c r="PG17" s="0"/>
-      <c r="PH17" s="0"/>
-      <c r="PI17" s="0"/>
-      <c r="PJ17" s="0"/>
-      <c r="PK17" s="0"/>
-      <c r="PL17" s="0"/>
-      <c r="PM17" s="0"/>
-      <c r="PN17" s="0"/>
-      <c r="PO17" s="0"/>
-      <c r="PP17" s="0"/>
-      <c r="PQ17" s="0"/>
-      <c r="PR17" s="0"/>
-      <c r="PS17" s="0"/>
-      <c r="PT17" s="0"/>
-      <c r="PU17" s="0"/>
-      <c r="PV17" s="0"/>
-      <c r="PW17" s="0"/>
-      <c r="PX17" s="0"/>
-      <c r="PY17" s="0"/>
-      <c r="PZ17" s="0"/>
-      <c r="QA17" s="0"/>
-      <c r="QB17" s="0"/>
-      <c r="QC17" s="0"/>
-      <c r="QD17" s="0"/>
-      <c r="QE17" s="0"/>
-      <c r="QF17" s="0"/>
-      <c r="QG17" s="0"/>
-      <c r="QH17" s="0"/>
-      <c r="QI17" s="0"/>
-      <c r="QJ17" s="0"/>
-      <c r="QK17" s="0"/>
-      <c r="QL17" s="0"/>
-      <c r="QM17" s="0"/>
-      <c r="QN17" s="0"/>
-      <c r="QO17" s="0"/>
-      <c r="QP17" s="0"/>
-      <c r="QQ17" s="0"/>
-      <c r="QR17" s="0"/>
-      <c r="QS17" s="0"/>
-      <c r="QT17" s="0"/>
-      <c r="QU17" s="0"/>
-      <c r="QV17" s="0"/>
-      <c r="QW17" s="0"/>
-      <c r="QX17" s="0"/>
-      <c r="QY17" s="0"/>
-      <c r="QZ17" s="0"/>
-      <c r="RA17" s="0"/>
-      <c r="RB17" s="0"/>
-      <c r="RC17" s="0"/>
-      <c r="RD17" s="0"/>
-      <c r="RE17" s="0"/>
-      <c r="RF17" s="0"/>
-      <c r="RG17" s="0"/>
-      <c r="RH17" s="0"/>
-      <c r="RI17" s="0"/>
-      <c r="RJ17" s="0"/>
-      <c r="RK17" s="0"/>
-      <c r="RL17" s="0"/>
-      <c r="RM17" s="0"/>
-      <c r="RN17" s="0"/>
-      <c r="RO17" s="0"/>
-      <c r="RP17" s="0"/>
-      <c r="RQ17" s="0"/>
-      <c r="RR17" s="0"/>
-      <c r="RS17" s="0"/>
-      <c r="RT17" s="0"/>
-      <c r="RU17" s="0"/>
-      <c r="RV17" s="0"/>
-      <c r="RW17" s="0"/>
-      <c r="RX17" s="0"/>
-      <c r="RY17" s="0"/>
-      <c r="RZ17" s="0"/>
-      <c r="SA17" s="0"/>
-      <c r="SB17" s="0"/>
-      <c r="SC17" s="0"/>
-      <c r="SD17" s="0"/>
-      <c r="SE17" s="0"/>
-      <c r="SF17" s="0"/>
-      <c r="SG17" s="0"/>
-      <c r="SH17" s="0"/>
-      <c r="SI17" s="0"/>
-      <c r="SJ17" s="0"/>
-      <c r="SK17" s="0"/>
-      <c r="SL17" s="0"/>
-      <c r="SM17" s="0"/>
-      <c r="SN17" s="0"/>
-      <c r="SO17" s="0"/>
-      <c r="SP17" s="0"/>
-      <c r="SQ17" s="0"/>
-      <c r="SR17" s="0"/>
-      <c r="SS17" s="0"/>
-      <c r="ST17" s="0"/>
-      <c r="SU17" s="0"/>
-      <c r="SV17" s="0"/>
-      <c r="SW17" s="0"/>
-      <c r="SX17" s="0"/>
-      <c r="SY17" s="0"/>
-      <c r="SZ17" s="0"/>
-      <c r="TA17" s="0"/>
-      <c r="TB17" s="0"/>
-      <c r="TC17" s="0"/>
-      <c r="TD17" s="0"/>
-      <c r="TE17" s="0"/>
-      <c r="TF17" s="0"/>
-      <c r="TG17" s="0"/>
-      <c r="TH17" s="0"/>
-      <c r="TI17" s="0"/>
-      <c r="TJ17" s="0"/>
-      <c r="TK17" s="0"/>
-      <c r="TL17" s="0"/>
-      <c r="TM17" s="0"/>
-      <c r="TN17" s="0"/>
-      <c r="TO17" s="0"/>
-      <c r="TP17" s="0"/>
-      <c r="TQ17" s="0"/>
-      <c r="TR17" s="0"/>
-      <c r="TS17" s="0"/>
-      <c r="TT17" s="0"/>
-      <c r="TU17" s="0"/>
-      <c r="TV17" s="0"/>
-      <c r="TW17" s="0"/>
-      <c r="TX17" s="0"/>
-      <c r="TY17" s="0"/>
-      <c r="TZ17" s="0"/>
-      <c r="UA17" s="0"/>
-      <c r="UB17" s="0"/>
-      <c r="UC17" s="0"/>
-      <c r="UD17" s="0"/>
-      <c r="UE17" s="0"/>
-      <c r="UF17" s="0"/>
-      <c r="UG17" s="0"/>
-      <c r="UH17" s="0"/>
-      <c r="UI17" s="0"/>
-      <c r="UJ17" s="0"/>
-      <c r="UK17" s="0"/>
-      <c r="UL17" s="0"/>
-      <c r="UM17" s="0"/>
-      <c r="UN17" s="0"/>
-      <c r="UO17" s="0"/>
-      <c r="UP17" s="0"/>
-      <c r="UQ17" s="0"/>
-      <c r="UR17" s="0"/>
-      <c r="US17" s="0"/>
-      <c r="UT17" s="0"/>
-      <c r="UU17" s="0"/>
-      <c r="UV17" s="0"/>
-      <c r="UW17" s="0"/>
-      <c r="UX17" s="0"/>
-      <c r="UY17" s="0"/>
-      <c r="UZ17" s="0"/>
-      <c r="VA17" s="0"/>
-      <c r="VB17" s="0"/>
-      <c r="VC17" s="0"/>
-      <c r="VD17" s="0"/>
-      <c r="VE17" s="0"/>
-      <c r="VF17" s="0"/>
-      <c r="VG17" s="0"/>
-      <c r="VH17" s="0"/>
-      <c r="VI17" s="0"/>
-      <c r="VJ17" s="0"/>
-      <c r="VK17" s="0"/>
-      <c r="VL17" s="0"/>
-      <c r="VM17" s="0"/>
-      <c r="VN17" s="0"/>
-      <c r="VO17" s="0"/>
-      <c r="VP17" s="0"/>
-      <c r="VQ17" s="0"/>
-      <c r="VR17" s="0"/>
-      <c r="VS17" s="0"/>
-      <c r="VT17" s="0"/>
-      <c r="VU17" s="0"/>
-      <c r="VV17" s="0"/>
-      <c r="VW17" s="0"/>
-      <c r="VX17" s="0"/>
-      <c r="VY17" s="0"/>
-      <c r="VZ17" s="0"/>
-      <c r="WA17" s="0"/>
-      <c r="WB17" s="0"/>
-      <c r="WC17" s="0"/>
-      <c r="WD17" s="0"/>
-      <c r="WE17" s="0"/>
-      <c r="WF17" s="0"/>
-      <c r="WG17" s="0"/>
-      <c r="WH17" s="0"/>
-      <c r="WI17" s="0"/>
-      <c r="WJ17" s="0"/>
-      <c r="WK17" s="0"/>
-      <c r="WL17" s="0"/>
-      <c r="WM17" s="0"/>
-      <c r="WN17" s="0"/>
-      <c r="WO17" s="0"/>
-      <c r="WP17" s="0"/>
-      <c r="WQ17" s="0"/>
-      <c r="WR17" s="0"/>
-      <c r="WS17" s="0"/>
-      <c r="WT17" s="0"/>
-      <c r="WU17" s="0"/>
-      <c r="WV17" s="0"/>
-      <c r="WW17" s="0"/>
-      <c r="WX17" s="0"/>
-      <c r="WY17" s="0"/>
-      <c r="WZ17" s="0"/>
-      <c r="XA17" s="0"/>
-      <c r="XB17" s="0"/>
-      <c r="XC17" s="0"/>
-      <c r="XD17" s="0"/>
-      <c r="XE17" s="0"/>
-      <c r="XF17" s="0"/>
-      <c r="XG17" s="0"/>
-      <c r="XH17" s="0"/>
-      <c r="XI17" s="0"/>
-      <c r="XJ17" s="0"/>
-      <c r="XK17" s="0"/>
-      <c r="XL17" s="0"/>
-      <c r="XM17" s="0"/>
-      <c r="XN17" s="0"/>
-      <c r="XO17" s="0"/>
-      <c r="XP17" s="0"/>
-      <c r="XQ17" s="0"/>
-      <c r="XR17" s="0"/>
-      <c r="XS17" s="0"/>
-      <c r="XT17" s="0"/>
-      <c r="XU17" s="0"/>
-      <c r="XV17" s="0"/>
-      <c r="XW17" s="0"/>
-      <c r="XX17" s="0"/>
-      <c r="XY17" s="0"/>
-      <c r="XZ17" s="0"/>
-      <c r="YA17" s="0"/>
-      <c r="YB17" s="0"/>
-      <c r="YC17" s="0"/>
-      <c r="YD17" s="0"/>
-      <c r="YE17" s="0"/>
-      <c r="YF17" s="0"/>
-      <c r="YG17" s="0"/>
-      <c r="YH17" s="0"/>
-      <c r="YI17" s="0"/>
-      <c r="YJ17" s="0"/>
-      <c r="YK17" s="0"/>
-      <c r="YL17" s="0"/>
-      <c r="YM17" s="0"/>
-      <c r="YN17" s="0"/>
-      <c r="YO17" s="0"/>
-      <c r="YP17" s="0"/>
-      <c r="YQ17" s="0"/>
-      <c r="YR17" s="0"/>
-      <c r="YS17" s="0"/>
-      <c r="YT17" s="0"/>
-      <c r="YU17" s="0"/>
-      <c r="YV17" s="0"/>
-      <c r="YW17" s="0"/>
-      <c r="YX17" s="0"/>
-      <c r="YY17" s="0"/>
-      <c r="YZ17" s="0"/>
-      <c r="ZA17" s="0"/>
-      <c r="ZB17" s="0"/>
-      <c r="ZC17" s="0"/>
-      <c r="ZD17" s="0"/>
-      <c r="ZE17" s="0"/>
-      <c r="ZF17" s="0"/>
-      <c r="ZG17" s="0"/>
-      <c r="ZH17" s="0"/>
-      <c r="ZI17" s="0"/>
-      <c r="ZJ17" s="0"/>
-      <c r="ZK17" s="0"/>
-      <c r="ZL17" s="0"/>
-      <c r="ZM17" s="0"/>
-      <c r="ZN17" s="0"/>
-      <c r="ZO17" s="0"/>
-      <c r="ZP17" s="0"/>
-      <c r="ZQ17" s="0"/>
-      <c r="ZR17" s="0"/>
-      <c r="ZS17" s="0"/>
-      <c r="ZT17" s="0"/>
-      <c r="ZU17" s="0"/>
-      <c r="ZV17" s="0"/>
-      <c r="ZW17" s="0"/>
-      <c r="ZX17" s="0"/>
-      <c r="ZY17" s="0"/>
-      <c r="ZZ17" s="0"/>
-      <c r="AAA17" s="0"/>
-      <c r="AAB17" s="0"/>
-      <c r="AAC17" s="0"/>
-      <c r="AAD17" s="0"/>
-      <c r="AAE17" s="0"/>
-      <c r="AAF17" s="0"/>
-      <c r="AAG17" s="0"/>
-      <c r="AAH17" s="0"/>
-      <c r="AAI17" s="0"/>
-      <c r="AAJ17" s="0"/>
-      <c r="AAK17" s="0"/>
-      <c r="AAL17" s="0"/>
-      <c r="AAM17" s="0"/>
-      <c r="AAN17" s="0"/>
-      <c r="AAO17" s="0"/>
-      <c r="AAP17" s="0"/>
-      <c r="AAQ17" s="0"/>
-      <c r="AAR17" s="0"/>
-      <c r="AAS17" s="0"/>
-      <c r="AAT17" s="0"/>
-      <c r="AAU17" s="0"/>
-      <c r="AAV17" s="0"/>
-      <c r="AAW17" s="0"/>
-      <c r="AAX17" s="0"/>
-      <c r="AAY17" s="0"/>
-      <c r="AAZ17" s="0"/>
-      <c r="ABA17" s="0"/>
-      <c r="ABB17" s="0"/>
-      <c r="ABC17" s="0"/>
-      <c r="ABD17" s="0"/>
-      <c r="ABE17" s="0"/>
-      <c r="ABF17" s="0"/>
-      <c r="ABG17" s="0"/>
-      <c r="ABH17" s="0"/>
-      <c r="ABI17" s="0"/>
-      <c r="ABJ17" s="0"/>
-      <c r="ABK17" s="0"/>
-      <c r="ABL17" s="0"/>
-      <c r="ABM17" s="0"/>
-      <c r="ABN17" s="0"/>
-      <c r="ABO17" s="0"/>
-      <c r="ABP17" s="0"/>
-      <c r="ABQ17" s="0"/>
-      <c r="ABR17" s="0"/>
-      <c r="ABS17" s="0"/>
-      <c r="ABT17" s="0"/>
-      <c r="ABU17" s="0"/>
-      <c r="ABV17" s="0"/>
-      <c r="ABW17" s="0"/>
-      <c r="ABX17" s="0"/>
-      <c r="ABY17" s="0"/>
-      <c r="ABZ17" s="0"/>
-      <c r="ACA17" s="0"/>
-      <c r="ACB17" s="0"/>
-      <c r="ACC17" s="0"/>
-      <c r="ACD17" s="0"/>
-      <c r="ACE17" s="0"/>
-      <c r="ACF17" s="0"/>
-      <c r="ACG17" s="0"/>
-      <c r="ACH17" s="0"/>
-      <c r="ACI17" s="0"/>
-      <c r="ACJ17" s="0"/>
-      <c r="ACK17" s="0"/>
-      <c r="ACL17" s="0"/>
-      <c r="ACM17" s="0"/>
-      <c r="ACN17" s="0"/>
-      <c r="ACO17" s="0"/>
-      <c r="ACP17" s="0"/>
-      <c r="ACQ17" s="0"/>
-      <c r="ACR17" s="0"/>
-      <c r="ACS17" s="0"/>
-      <c r="ACT17" s="0"/>
-      <c r="ACU17" s="0"/>
-      <c r="ACV17" s="0"/>
-      <c r="ACW17" s="0"/>
-      <c r="ACX17" s="0"/>
-      <c r="ACY17" s="0"/>
-      <c r="ACZ17" s="0"/>
-      <c r="ADA17" s="0"/>
-      <c r="ADB17" s="0"/>
-      <c r="ADC17" s="0"/>
-      <c r="ADD17" s="0"/>
-      <c r="ADE17" s="0"/>
-      <c r="ADF17" s="0"/>
-      <c r="ADG17" s="0"/>
-      <c r="ADH17" s="0"/>
-      <c r="ADI17" s="0"/>
-      <c r="ADJ17" s="0"/>
-      <c r="ADK17" s="0"/>
-      <c r="ADL17" s="0"/>
-      <c r="ADM17" s="0"/>
-      <c r="ADN17" s="0"/>
-      <c r="ADO17" s="0"/>
-      <c r="ADP17" s="0"/>
-      <c r="ADQ17" s="0"/>
-      <c r="ADR17" s="0"/>
-      <c r="ADS17" s="0"/>
-      <c r="ADT17" s="0"/>
-      <c r="ADU17" s="0"/>
-      <c r="ADV17" s="0"/>
-      <c r="ADW17" s="0"/>
-      <c r="ADX17" s="0"/>
-      <c r="ADY17" s="0"/>
-      <c r="ADZ17" s="0"/>
-      <c r="AEA17" s="0"/>
-      <c r="AEB17" s="0"/>
-      <c r="AEC17" s="0"/>
-      <c r="AED17" s="0"/>
-      <c r="AEE17" s="0"/>
-      <c r="AEF17" s="0"/>
-      <c r="AEG17" s="0"/>
-      <c r="AEH17" s="0"/>
-      <c r="AEI17" s="0"/>
-      <c r="AEJ17" s="0"/>
-      <c r="AEK17" s="0"/>
-      <c r="AEL17" s="0"/>
-      <c r="AEM17" s="0"/>
-      <c r="AEN17" s="0"/>
-      <c r="AEO17" s="0"/>
-      <c r="AEP17" s="0"/>
-      <c r="AEQ17" s="0"/>
-      <c r="AER17" s="0"/>
-      <c r="AES17" s="0"/>
-      <c r="AET17" s="0"/>
-      <c r="AEU17" s="0"/>
-      <c r="AEV17" s="0"/>
-      <c r="AEW17" s="0"/>
-      <c r="AEX17" s="0"/>
-      <c r="AEY17" s="0"/>
-      <c r="AEZ17" s="0"/>
-      <c r="AFA17" s="0"/>
-      <c r="AFB17" s="0"/>
-      <c r="AFC17" s="0"/>
-      <c r="AFD17" s="0"/>
-      <c r="AFE17" s="0"/>
-      <c r="AFF17" s="0"/>
-      <c r="AFG17" s="0"/>
-      <c r="AFH17" s="0"/>
-      <c r="AFI17" s="0"/>
-      <c r="AFJ17" s="0"/>
-      <c r="AFK17" s="0"/>
-      <c r="AFL17" s="0"/>
-      <c r="AFM17" s="0"/>
-      <c r="AFN17" s="0"/>
-      <c r="AFO17" s="0"/>
-      <c r="AFP17" s="0"/>
-      <c r="AFQ17" s="0"/>
-      <c r="AFR17" s="0"/>
-      <c r="AFS17" s="0"/>
-      <c r="AFT17" s="0"/>
-      <c r="AFU17" s="0"/>
-      <c r="AFV17" s="0"/>
-      <c r="AFW17" s="0"/>
-      <c r="AFX17" s="0"/>
-      <c r="AFY17" s="0"/>
-      <c r="AFZ17" s="0"/>
-      <c r="AGA17" s="0"/>
-      <c r="AGB17" s="0"/>
-      <c r="AGC17" s="0"/>
-      <c r="AGD17" s="0"/>
-      <c r="AGE17" s="0"/>
-      <c r="AGF17" s="0"/>
-      <c r="AGG17" s="0"/>
-      <c r="AGH17" s="0"/>
-      <c r="AGI17" s="0"/>
-      <c r="AGJ17" s="0"/>
-      <c r="AGK17" s="0"/>
-      <c r="AGL17" s="0"/>
-      <c r="AGM17" s="0"/>
-      <c r="AGN17" s="0"/>
-      <c r="AGO17" s="0"/>
-      <c r="AGP17" s="0"/>
-      <c r="AGQ17" s="0"/>
-      <c r="AGR17" s="0"/>
-      <c r="AGS17" s="0"/>
-      <c r="AGT17" s="0"/>
-      <c r="AGU17" s="0"/>
-      <c r="AGV17" s="0"/>
-      <c r="AGW17" s="0"/>
-      <c r="AGX17" s="0"/>
-      <c r="AGY17" s="0"/>
-      <c r="AGZ17" s="0"/>
-      <c r="AHA17" s="0"/>
-      <c r="AHB17" s="0"/>
-      <c r="AHC17" s="0"/>
-      <c r="AHD17" s="0"/>
-      <c r="AHE17" s="0"/>
-      <c r="AHF17" s="0"/>
-      <c r="AHG17" s="0"/>
-      <c r="AHH17" s="0"/>
-      <c r="AHI17" s="0"/>
-      <c r="AHJ17" s="0"/>
-      <c r="AHK17" s="0"/>
-      <c r="AHL17" s="0"/>
-      <c r="AHM17" s="0"/>
-      <c r="AHN17" s="0"/>
-      <c r="AHO17" s="0"/>
-      <c r="AHP17" s="0"/>
-      <c r="AHQ17" s="0"/>
-      <c r="AHR17" s="0"/>
-      <c r="AHS17" s="0"/>
-      <c r="AHT17" s="0"/>
-      <c r="AHU17" s="0"/>
-      <c r="AHV17" s="0"/>
-      <c r="AHW17" s="0"/>
-      <c r="AHX17" s="0"/>
-      <c r="AHY17" s="0"/>
-      <c r="AHZ17" s="0"/>
-      <c r="AIA17" s="0"/>
-      <c r="AIB17" s="0"/>
-      <c r="AIC17" s="0"/>
-      <c r="AID17" s="0"/>
-      <c r="AIE17" s="0"/>
-      <c r="AIF17" s="0"/>
-      <c r="AIG17" s="0"/>
-      <c r="AIH17" s="0"/>
-      <c r="AII17" s="0"/>
-      <c r="AIJ17" s="0"/>
-      <c r="AIK17" s="0"/>
-      <c r="AIL17" s="0"/>
-      <c r="AIM17" s="0"/>
-      <c r="AIN17" s="0"/>
-      <c r="AIO17" s="0"/>
-      <c r="AIP17" s="0"/>
-      <c r="AIQ17" s="0"/>
-      <c r="AIR17" s="0"/>
-      <c r="AIS17" s="0"/>
-      <c r="AIT17" s="0"/>
-      <c r="AIU17" s="0"/>
-      <c r="AIV17" s="0"/>
-      <c r="AIW17" s="0"/>
-      <c r="AIX17" s="0"/>
-      <c r="AIY17" s="0"/>
-      <c r="AIZ17" s="0"/>
-      <c r="AJA17" s="0"/>
-      <c r="AJB17" s="0"/>
-      <c r="AJC17" s="0"/>
-      <c r="AJD17" s="0"/>
-      <c r="AJE17" s="0"/>
-      <c r="AJF17" s="0"/>
-      <c r="AJG17" s="0"/>
-      <c r="AJH17" s="0"/>
-      <c r="AJI17" s="0"/>
-      <c r="AJJ17" s="0"/>
-      <c r="AJK17" s="0"/>
-      <c r="AJL17" s="0"/>
-      <c r="AJM17" s="0"/>
-      <c r="AJN17" s="0"/>
-      <c r="AJO17" s="0"/>
-      <c r="AJP17" s="0"/>
-      <c r="AJQ17" s="0"/>
-      <c r="AJR17" s="0"/>
-      <c r="AJS17" s="0"/>
-      <c r="AJT17" s="0"/>
-      <c r="AJU17" s="0"/>
-      <c r="AJV17" s="0"/>
-      <c r="AJW17" s="0"/>
-      <c r="AJX17" s="0"/>
-      <c r="AJY17" s="0"/>
-      <c r="AJZ17" s="0"/>
-      <c r="AKA17" s="0"/>
-      <c r="AKB17" s="0"/>
-      <c r="AKC17" s="0"/>
-      <c r="AKD17" s="0"/>
-      <c r="AKE17" s="0"/>
-      <c r="AKF17" s="0"/>
-      <c r="AKG17" s="0"/>
-      <c r="AKH17" s="0"/>
-      <c r="AKI17" s="0"/>
-      <c r="AKJ17" s="0"/>
-      <c r="AKK17" s="0"/>
-      <c r="AKL17" s="0"/>
-      <c r="AKM17" s="0"/>
-      <c r="AKN17" s="0"/>
-      <c r="AKO17" s="0"/>
-      <c r="AKP17" s="0"/>
-      <c r="AKQ17" s="0"/>
-      <c r="AKR17" s="0"/>
-      <c r="AKS17" s="0"/>
-      <c r="AKT17" s="0"/>
-      <c r="AKU17" s="0"/>
-      <c r="AKV17" s="0"/>
-      <c r="AKW17" s="0"/>
-      <c r="AKX17" s="0"/>
-      <c r="AKY17" s="0"/>
-      <c r="AKZ17" s="0"/>
-      <c r="ALA17" s="0"/>
-      <c r="ALB17" s="0"/>
-      <c r="ALC17" s="0"/>
-      <c r="ALD17" s="0"/>
-      <c r="ALE17" s="0"/>
-      <c r="ALF17" s="0"/>
-      <c r="ALG17" s="0"/>
-      <c r="ALH17" s="0"/>
-      <c r="ALI17" s="0"/>
-      <c r="ALJ17" s="0"/>
-      <c r="ALK17" s="0"/>
-      <c r="ALL17" s="0"/>
-      <c r="ALM17" s="0"/>
-      <c r="ALN17" s="0"/>
-      <c r="ALO17" s="0"/>
-      <c r="ALP17" s="0"/>
-      <c r="ALQ17" s="0"/>
-      <c r="ALR17" s="0"/>
-      <c r="ALS17" s="0"/>
-      <c r="ALT17" s="0"/>
-      <c r="ALU17" s="0"/>
-      <c r="ALV17" s="0"/>
-      <c r="ALW17" s="0"/>
-      <c r="ALX17" s="0"/>
-      <c r="ALY17" s="0"/>
-      <c r="ALZ17" s="0"/>
-      <c r="AMA17" s="0"/>
-      <c r="AMB17" s="0"/>
-      <c r="AMC17" s="0"/>
-      <c r="AMD17" s="0"/>
-      <c r="AME17" s="0"/>
-      <c r="AMF17" s="0"/>
-      <c r="AMG17" s="0"/>
-      <c r="AMH17" s="0"/>
-      <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>44584</v>
+      </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2239,7 +1279,7 @@
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://trello.com/b/CKTg99DY/ejemplo-planificaci%C3%B3n-reto"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://github.com/DealG/Reto/projects/1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2258,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,7 +1332,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18"/>
       <c r="V1" s="19"/>
@@ -2308,40 +1348,40 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
       <c r="V3" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
@@ -2350,81 +1390,81 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21"/>
       <c r="B4" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="U4" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -2453,7 +1493,7 @@
     </row>
     <row r="6" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -2482,7 +1522,7 @@
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2511,7 +1551,7 @@
     </row>
     <row r="8" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -2540,7 +1580,7 @@
     </row>
     <row r="9" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -2569,7 +1609,7 @@
     </row>
     <row r="10" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
